--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\OpenClassroom\JeremyTardini_4_19072021\Starting website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52532167-8472-4BA2-ADC4-BCA970964179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17529649-B04D-4AB0-AFFC-84F34E9F292E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1695" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page Index" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="123">
   <si>
     <t>Catégorie</t>
   </si>
@@ -112,12 +112,6 @@
     <t>Changemen de description</t>
   </si>
   <si>
-    <t>mauvaise compréhension de thématique</t>
-  </si>
-  <si>
-    <t>Il n'y a pas de définition de titre via H1 H2</t>
-  </si>
-  <si>
     <t>Création d'une nouvelle page "service"</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>Utiliser un &lt;p&gt; etc … pour marquer du texte</t>
   </si>
   <si>
-    <t>Remplacemenet et ecriture</t>
-  </si>
-  <si>
     <t>Perte de confiance par Google Mobile Bot</t>
   </si>
   <si>
@@ -265,33 +256,15 @@
     <t>Mauvais nom de menu</t>
   </si>
   <si>
-    <t>Adapter les noms des différents menu</t>
-  </si>
-  <si>
-    <t>Remplacer le nome "menu 2" en "contact"</t>
-  </si>
-  <si>
     <t>probleme d'affichage menu</t>
   </si>
   <si>
     <t>corriger le css</t>
   </si>
   <si>
-    <t>Manque de MetaBalise</t>
-  </si>
-  <si>
     <t>le menu n'est pas responsive et ne s'affiche pas correctement</t>
   </si>
   <si>
-    <t>Il n'y a aucunes Meta balise (&lt;article&gt;, &lt;footer&gt; ETC ..)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dans le but d'indexer correctement les thémes de la page, toujours utiliser des métabalises </t>
-  </si>
-  <si>
-    <t>Rajout des balise Article pour définir le sujet de la pages.</t>
-  </si>
-  <si>
     <t>https://www.rerp.fr/avantages-de-google-analytics-entreprise/</t>
   </si>
   <si>
@@ -322,21 +295,12 @@
     <t>Insérer un Balise Meta Robots</t>
   </si>
   <si>
-    <t>Insertion : &lt;meta name="robots" content="noindex" /&gt; dans le &lt;Head&gt;</t>
-  </si>
-  <si>
     <t>https://smartkeyword.io/seo-technique-seo-balise-meta-robots/</t>
   </si>
   <si>
-    <t>manque de visibilité</t>
-  </si>
-  <si>
     <t>SEO / ACCESSIBILITE</t>
   </si>
   <si>
-    <t>liens morts partenaires</t>
-  </si>
-  <si>
     <t>Avec la texture ainsi que la charte graphique choisie les informations manque de visibilité</t>
   </si>
   <si>
@@ -370,22 +334,73 @@
     <t>Suppression jusqu’à réactivation des liens.</t>
   </si>
   <si>
-    <t>Page d'acceuil</t>
-  </si>
-  <si>
-    <t>Page de contact</t>
-  </si>
-  <si>
     <t>Corriger les redirection vers Bootstrap, et-line.css etc …</t>
   </si>
   <si>
     <t>Modification profonde et changement d'architecture</t>
   </si>
   <si>
-    <t>Les liens présents dans le footer indique une erreur 404</t>
-  </si>
-  <si>
     <t>Le nom n'est pas spécifique à la redirection</t>
+  </si>
+  <si>
+    <t>Page d'accueil</t>
+  </si>
+  <si>
+    <t>Liens morts partenaires</t>
+  </si>
+  <si>
+    <t>Mauvaise compréhension de thématique</t>
+  </si>
+  <si>
+    <t>https://www.digitalcorsaire.com/page-erreur-404-liens-morts/#:~:text=Autrement%20dit%2C%20ce%20sont%20des,jour%20sans%20redirection%20301%2C%20etc.</t>
+  </si>
+  <si>
+    <t>Insertion : &lt;meta name="robots" content="index" /&gt; dans le &lt;Head&gt;</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
+  </si>
+  <si>
+    <t>https://www.seo-sea-expertise.com/lisibilite-et-referencement-conseils-pratiques-pour-les-redacteurs-inside-et-seo/</t>
+  </si>
+  <si>
+    <t>Remplacement et ecriture</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/1603881-apprenez-a-creer-votre-site-web-avec-html5-et-css3/1605060-mettez-en-place-le-css</t>
+  </si>
+  <si>
+    <t>Remplacer le nom "menu 2" en "contact"</t>
+  </si>
+  <si>
+    <t>Adapter les noms des différents menus</t>
+  </si>
+  <si>
+    <t>Les liens présents dans le &lt;footer&gt; indique une erreur 404</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de définition de titre via &lt;H1&gt; &lt;H2&gt;</t>
+  </si>
+  <si>
+    <t>Manque de visibilité</t>
+  </si>
+  <si>
+    <t>Réaliser des pages de 400 lignes et trié par sous repertoire le contenu</t>
+  </si>
+  <si>
+    <t>Favoriser le partage de lien (site partenaire) et reservé une emplacement adéquat dans les différentes informatiosn du site</t>
+  </si>
+  <si>
+    <t>Nos partenaires sont placé dans le footer et donc il y a un manque de pertinance face à l'impact des liens dans le SEO</t>
+  </si>
+  <si>
+    <t>L'index reprend plusieurs themes au lieu d'étre spécifique</t>
+  </si>
+  <si>
+    <t>https://optimiz.me/faire-thematique-unique-page/</t>
+  </si>
+  <si>
+    <t>Inspecteur d'éléments Google (performance)</t>
   </si>
 </sst>
 </file>
@@ -493,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -748,76 +763,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -864,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -944,19 +889,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -972,65 +904,70 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1052,10 +989,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1256,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1013"/>
+  <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1272,22 +1205,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
@@ -1312,14 +1245,14 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
+      <c r="A2" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1341,598 +1274,569 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="E17" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="1:26" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" s="30" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:26" s="31" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:26" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+    </row>
+    <row r="24" spans="1:26" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+    </row>
+    <row r="25" spans="1:26" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="39"/>
-    </row>
-    <row r="5" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="B25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="42"/>
+    </row>
+    <row r="26" spans="1:26" s="30" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="39"/>
-    </row>
-    <row r="6" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="B26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" spans="1:26" s="30" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="39"/>
-    </row>
-    <row r="7" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="38" t="s">
+      <c r="B27" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C27" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D27" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E27" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="39"/>
-    </row>
-    <row r="9" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="39"/>
-    </row>
-    <row r="10" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="39"/>
-    </row>
-    <row r="11" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" spans="1:26" s="40" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="39"/>
-    </row>
-    <row r="17" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="39"/>
-    </row>
-    <row r="18" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="39"/>
-    </row>
-    <row r="19" spans="1:26" s="40" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="39"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" s="30" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-    </row>
-    <row r="25" spans="1:26" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-    </row>
-    <row r="26" spans="1:26" s="62" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="61"/>
-      <c r="Z26" s="61"/>
-    </row>
-    <row r="27" spans="1:26" s="60" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-    </row>
-    <row r="28" spans="1:26" s="60" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-    </row>
-    <row r="29" spans="1:26" s="67" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="F27" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -2179,20 +2083,8 @@
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3134,13 +3026,10 @@
     <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A24:F24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" xr:uid="{CF9A5849-550B-4DB8-B908-C9AC9E096A19}"/>
@@ -3156,9 +3045,17 @@
     <hyperlink ref="F8" r:id="rId11" xr:uid="{B2220D41-942B-427E-8689-EC6C9DA4B56C}"/>
     <hyperlink ref="F3" r:id="rId12" xr:uid="{F2C45213-9FAD-4E82-BB5C-A245C98DF6D7}"/>
     <hyperlink ref="F17" r:id="rId13" xr:uid="{E8ED30B4-4D97-4220-9054-C17BF1EF8C55}"/>
+    <hyperlink ref="F10" r:id="rId14" location=":~:text=Autrement%20dit%2C%20ce%20sont%20des,jour%20sans%20redirection%20301%2C%20etc." xr:uid="{7C1FE4D9-D221-470A-AA30-A969D93BEA3D}"/>
+    <hyperlink ref="F7" r:id="rId15" xr:uid="{E6A3EF5B-3079-4E16-9566-96E0B7A49FE4}"/>
+    <hyperlink ref="F13" r:id="rId16" xr:uid="{2993697D-6D71-4DFC-9592-429D865C798E}"/>
+    <hyperlink ref="F21" r:id="rId17" xr:uid="{A03B8E50-F5AB-40E3-A4AB-B7C7F6E8199E}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{C2A97E6F-81C2-4ADB-BA9C-509D59AD87FD}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{486CB443-D2DA-4A34-A91F-F3610C424C57}"/>
+    <hyperlink ref="F26" r:id="rId20" xr:uid="{42900925-03B2-45B7-91B5-5A9C96DB580F}"/>
+    <hyperlink ref="F25" r:id="rId21" xr:uid="{9BD1A286-3B10-4FCE-ACE1-3EC324E249CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId14"/>
+  <pageSetup orientation="landscape" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -3200,7 +3097,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3248,7 +3145,7 @@
     </row>
     <row r="10" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
@@ -3261,16 +3158,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="22"/>
     </row>
@@ -3279,16 +3176,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="15"/>
     </row>
@@ -3297,16 +3194,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="F13" s="16"/>
     </row>
